--- a/experiment/output/results/PACS/CORAL/DG/2.xlsx
+++ b/experiment/output/results/PACS/CORAL/DG/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,183 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250206_00-38-32_resnet50_GENIE</t>
+          <t>250127_21-18-12_resnet50_EVE</t>
         </is>
       </c>
       <c r="D2" t="n">
+        <v>97.904</v>
+      </c>
+      <c r="E2" t="n">
         <v>98.27800000000001</v>
       </c>
-      <c r="E2" t="n">
-        <v>97.979</v>
-      </c>
       <c r="F2" t="n">
-        <v>98.129</v>
+        <v>98.27800000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250127_21-18-12_resnet50_EVE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>97.904</v>
-      </c>
-      <c r="E3" t="n">
-        <v>98.27800000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>98.27800000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250206_02-16-28_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>97.006</v>
-      </c>
-      <c r="E4" t="n">
-        <v>97.081</v>
-      </c>
-      <c r="F4" t="n">
-        <v>97.15600000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>250206_02-57-07_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>97.006</v>
-      </c>
-      <c r="E5" t="n">
-        <v>97.23099999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>97.23099999999999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>250206_01-29-49_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>97.754</v>
-      </c>
-      <c r="E6" t="n">
-        <v>97.754</v>
-      </c>
-      <c r="F6" t="n">
-        <v>89.371</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>250205_23-54-15_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>97.68000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>98.054</v>
-      </c>
-      <c r="F7" t="n">
-        <v>98.054</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
